--- a/test-scenarios.xlsx
+++ b/test-scenarios.xlsx
@@ -5,10 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="WEB" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="STRESS" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
   <si>
     <t xml:space="preserve">Functionality</t>
   </si>
@@ -42,6 +44,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Must make a </t>
     </r>
@@ -51,6 +54,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">POST</t>
     </r>
@@ -59,6 +63,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> request to login successfully</t>
     </r>
@@ -215,6 +220,54 @@
   </si>
   <si>
     <t xml:space="preserve">Must make a POST request to delete non-existent product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Must register successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter new email, name and password,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System returns message that registration was completed successfully.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Must validate transfer between accounts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make a transfer to another account.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The transfer must be completed successfully.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Must logout of the account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log out to exit the account.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System returns to login screen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stress Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perform stress tests with durations of 10, 50 and 5 seconds and with access by 50, 100 and 0 users respectively.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Traffic ramp-up from 1 to a higher 50 users over 10 seconds.
+- stay at higher 500 users for 100 seconds.
+- Ramp-down to 0 users.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 95% of requests must respond within 2 seconds.
+- 1% of requests may occur in error.</t>
   </si>
 </sst>
 </file>
@@ -229,6 +282,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -250,33 +304,55 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <strike val="true"/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8000"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -305,21 +381,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -331,6 +415,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF8000"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -341,11 +485,11 @@
   </sheetPr>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="68.13"/>
@@ -698,4 +842,148 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="68.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="63.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="65.21"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="68.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="63.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="65.21"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>